--- a/table/Table_S6_229_Exonic_DMR_Genes.xlsx
+++ b/table/Table_S6_229_Exonic_DMR_Genes.xlsx
@@ -754,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Table S3 Genes with CG TEO-MZ DMR located at exonic regions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -818,6 +814,10 @@
   </si>
   <si>
     <t>Chr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table S6. Genes with CG TEO-MZ DMR located at exonic regions.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,25 +994,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1321,41 +1321,41 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>237</v>
@@ -1363,23 +1363,23 @@
       <c r="F3" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>234</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>235</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="235" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
